--- a/프로젝트/파이썬/보고서 매크로/가라추가.xlsx
+++ b/프로젝트/파이썬/보고서 매크로/가라추가.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enoz1f05\Desktop\워드 망령 추가\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\박주형\01.업무용 파일\2023\2023 북구 온라인 SW 코딩 교실 운영\2기\결과보고서\재균씨 전달\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,43 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>일일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>월수1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,60 +182,373 @@
     <t>화목25</t>
   </si>
   <si>
-    <t>오이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>칠일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팔삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>십삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>육이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>금고운</t>
+  </si>
+  <si>
+    <t>김가영</t>
+  </si>
+  <si>
+    <t>김나린</t>
+  </si>
+  <si>
+    <t>고하임</t>
+  </si>
+  <si>
+    <t>권선우</t>
+  </si>
+  <si>
+    <t>김라희</t>
+  </si>
+  <si>
+    <t>문가율</t>
+  </si>
+  <si>
+    <t>김소을</t>
+  </si>
+  <si>
+    <t>김세린</t>
+  </si>
+  <si>
+    <t>김수안</t>
+  </si>
+  <si>
+    <t>김수진</t>
+  </si>
+  <si>
+    <t>박라원</t>
+  </si>
+  <si>
+    <t>신다영</t>
+  </si>
+  <si>
+    <t>박루다</t>
+  </si>
+  <si>
+    <t>박민솔</t>
+  </si>
+  <si>
+    <t>김도영</t>
+  </si>
+  <si>
+    <t>김도하</t>
+  </si>
+  <si>
+    <t>김라임</t>
+  </si>
+  <si>
+    <t>김리온</t>
+  </si>
+  <si>
+    <t>김민영</t>
+  </si>
+  <si>
+    <t>김보나</t>
+  </si>
+  <si>
+    <t>김소원</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>이연지</t>
+  </si>
+  <si>
+    <t>이연우</t>
+  </si>
+  <si>
+    <t>양루나</t>
+  </si>
+  <si>
+    <t>이아리</t>
+  </si>
+  <si>
+    <t>이율아</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>전현아</t>
+  </si>
+  <si>
+    <t>홍아라</t>
+  </si>
+  <si>
+    <t>최지후</t>
+  </si>
+  <si>
+    <t>서정인</t>
+  </si>
+  <si>
+    <t>안소연</t>
+  </si>
+  <si>
+    <t>엄희서</t>
+  </si>
+  <si>
+    <t>이소을</t>
+  </si>
+  <si>
+    <t>박채희</t>
+  </si>
+  <si>
+    <t>김유하</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>김유은</t>
+  </si>
+  <si>
+    <t>박주은</t>
+  </si>
+  <si>
+    <t>서희진</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>정세희</t>
+  </si>
+  <si>
+    <t>조나온</t>
+  </si>
+  <si>
+    <t>신하진</t>
+  </si>
+  <si>
+    <t>박하엘</t>
+  </si>
+  <si>
+    <t>김인아</t>
+  </si>
+  <si>
+    <t>김해윤</t>
+  </si>
+  <si>
+    <t>남은혜</t>
+  </si>
+  <si>
+    <t>정민설</t>
+  </si>
+  <si>
+    <t>조아라</t>
+  </si>
+  <si>
+    <t>최우주</t>
+  </si>
+  <si>
+    <t>조윤주</t>
+  </si>
+  <si>
+    <t>김시아</t>
+  </si>
+  <si>
+    <t>이솜</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>정서율</t>
+  </si>
+  <si>
+    <t>김유나</t>
+  </si>
+  <si>
+    <t>양가람</t>
+  </si>
+  <si>
+    <t>우은별</t>
+  </si>
+  <si>
+    <t>이세령</t>
+  </si>
+  <si>
+    <t>양로아</t>
+  </si>
+  <si>
+    <t>이선우</t>
+  </si>
+  <si>
+    <t>이수지</t>
+  </si>
+  <si>
+    <t>함은혜</t>
+  </si>
+  <si>
+    <t>김진환</t>
+  </si>
+  <si>
+    <t>이다연</t>
+  </si>
+  <si>
+    <t>박민재</t>
+  </si>
+  <si>
+    <t>김성헌</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>박성빈</t>
+  </si>
+  <si>
+    <t>강결</t>
+  </si>
+  <si>
+    <t>고율리</t>
+  </si>
+  <si>
+    <t>강주이</t>
+  </si>
+  <si>
+    <t>강예진</t>
+  </si>
+  <si>
+    <t>강주원</t>
+  </si>
+  <si>
+    <t>박정인</t>
+  </si>
+  <si>
+    <t>김태인</t>
+  </si>
+  <si>
+    <t>이은하</t>
+  </si>
+  <si>
+    <t>김연희</t>
+  </si>
+  <si>
+    <t>김윤진</t>
+  </si>
+  <si>
+    <t>정채율</t>
+  </si>
+  <si>
+    <t>이지혜</t>
+  </si>
+  <si>
+    <t>전주연</t>
+  </si>
+  <si>
+    <t>박예인</t>
+  </si>
+  <si>
+    <t>이이담</t>
+  </si>
+  <si>
+    <t>유민경</t>
+  </si>
+  <si>
+    <t>오나은</t>
+  </si>
+  <si>
+    <t>조나윤</t>
+  </si>
+  <si>
+    <t>이인아</t>
+  </si>
+  <si>
+    <t>최루희</t>
+  </si>
+  <si>
+    <t>김율아</t>
+  </si>
+  <si>
+    <t>이윤슬</t>
+  </si>
+  <si>
+    <t>안서린</t>
+  </si>
+  <si>
+    <t>김아율</t>
+  </si>
+  <si>
+    <t>김해리</t>
+  </si>
+  <si>
+    <t>김아정</t>
+  </si>
+  <si>
+    <t>이샛별</t>
+  </si>
+  <si>
+    <t>조예진</t>
+  </si>
+  <si>
+    <t>오이진</t>
+  </si>
+  <si>
+    <t>이예윤</t>
+  </si>
+  <si>
+    <t>조가람</t>
+  </si>
+  <si>
+    <t>김제아</t>
+  </si>
+  <si>
+    <t>박하음</t>
+  </si>
+  <si>
+    <t>원지윤</t>
+  </si>
+  <si>
+    <t>이재아</t>
+  </si>
+  <si>
+    <t>이리아</t>
+  </si>
+  <si>
+    <t>장다율</t>
+  </si>
+  <si>
+    <t>조여은</t>
+  </si>
+  <si>
+    <t>손정연</t>
+  </si>
+  <si>
+    <t>송수린</t>
+  </si>
+  <si>
+    <t>노민채</t>
+  </si>
+  <si>
+    <t>류가연</t>
+  </si>
+  <si>
+    <t>박보아</t>
+  </si>
+  <si>
+    <t>류하연</t>
+  </si>
+  <si>
+    <t>박세영</t>
+  </si>
+  <si>
+    <t>박아름</t>
+  </si>
+  <si>
+    <t>최하경</t>
+  </si>
+  <si>
+    <t>이로희</t>
+  </si>
+  <si>
+    <t>김준희</t>
+  </si>
+  <si>
+    <t>장예하</t>
+  </si>
+  <si>
+    <t>성혜인</t>
   </si>
 </sst>
 </file>
@@ -603,241 +880,539 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
+      <c r="I2" t="s">
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U2" t="s">
+        <v>105</v>
+      </c>
+      <c r="V2" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" t="s">
-        <v>66</v>
+      <c r="I3" t="s">
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S3" t="s">
+        <v>99</v>
+      </c>
+      <c r="T3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V3" t="s">
+        <v>110</v>
+      </c>
+      <c r="W3" t="s">
+        <v>114</v>
+      </c>
+      <c r="X3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" t="s">
+        <v>95</v>
+      </c>
+      <c r="S4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>62</v>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>63</v>
+      <c r="Z6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
